--- a/TFG/test.xlsx
+++ b/TFG/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,15 +501,45 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>diferencia_dias_week2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>diferencia_dias_week3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>diferencia_dias_week4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>accesos_week1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>accesos_week2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>accesos_week3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>accesos_week4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>wooclap_average</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>nota_final_aprobado</t>
         </is>
@@ -520,48 +550,66 @@
         <v>130</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>40</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -572,48 +620,66 @@
         <v>131</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P3" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>45</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -624,19 +690,19 @@
         <v>132</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -645,27 +711,45 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="n">
         <v>15</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>61.66666666666666</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -676,37 +760,37 @@
         <v>133</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
@@ -715,9 +799,27 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>55</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -728,48 +830,66 @@
         <v>134</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
+        <v>70</v>
+      </c>
+      <c r="L6" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P6" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>30</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -780,48 +900,66 @@
         <v>135</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P7" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>21</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -832,48 +970,66 @@
         <v>136</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>32</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
       <c r="O8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -884,48 +1040,66 @@
         <v>137</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M9" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -936,34 +1110,34 @@
         <v>139</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
@@ -972,12 +1146,30 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -988,48 +1180,66 @@
         <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P11" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>61.66666666666666</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1040,48 +1250,66 @@
         <v>141</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P12" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>55</v>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1092,48 +1320,66 @@
         <v>142</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P13" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1144,48 +1390,66 @@
         <v>143</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P14" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1196,48 +1460,66 @@
         <v>144</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P15" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>78.33333333333333</v>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1248,48 +1530,66 @@
         <v>145</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P16" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>70</v>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1300,48 +1600,66 @@
         <v>146</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
+        <v>19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>27</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8</v>
+      </c>
+      <c r="T17" t="n">
         <v>9</v>
       </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P17" t="inlineStr">
+      <c r="U17" t="n">
+        <v>70</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1352,48 +1670,66 @@
         <v>147</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H18" t="n">
+        <v>35</v>
+      </c>
+      <c r="I18" t="n">
         <v>18</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P18" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>91.66666666666667</v>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1404,48 +1740,66 @@
         <v>148</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
+        <v>161</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>34</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>57</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" t="n">
         <v>19</v>
       </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
-      </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P19" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>16</v>
+      </c>
+      <c r="T19" t="n">
+        <v>9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>85</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1456,48 +1810,66 @@
         <v>149</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P20" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="V20" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1508,48 +1880,66 @@
         <v>150</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P21" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>85</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1560,48 +1950,66 @@
         <v>151</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>75</v>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1612,48 +2020,66 @@
         <v>152</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P23" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>68.33333333333333</v>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1664,37 +2090,37 @@
         <v>153</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -1703,9 +2129,27 @@
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P24" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1716,34 +2160,34 @@
         <v>154</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="F25" t="n">
+        <v>104</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>44</v>
+      </c>
+      <c r="I25" t="n">
+        <v>44</v>
+      </c>
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1755,9 +2199,27 @@
         <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+      <c r="R25" t="n">
+        <v>11</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>61.66666666666666</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
@@ -1768,48 +2230,66 @@
         <v>155</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
         <v>-1</v>
       </c>
-      <c r="N26" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
